--- a/MainTop/21.10.2025 Таня ВБ/spros_print_sorted.xlsx
+++ b/MainTop/21.10.2025 Таня ВБ/spros_print_sorted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\21.10.2025 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\21.10.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E254327F-F0F0-44A8-BD6D-0C6E811AB6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B9812-AF4B-4964-894F-0A35AD40C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,10 +350,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -658,14 +658,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E73" sqref="E72:E73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
